--- a/OsakaAreaTownTransList.xlsx
+++ b/OsakaAreaTownTransList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
   <si>
     <t xml:space="preserve">居住地</t>
   </si>
@@ -31,277 +31,142 @@
     <t xml:space="preserve">市町村</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府豊中市</t>
+    <t xml:space="preserve">豊中市</t>
   </si>
   <si>
     <t xml:space="preserve">北大阪</t>
   </si>
   <si>
-    <t xml:space="preserve">豊中市</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大阪府池田市</t>
-  </si>
-  <si>
     <t xml:space="preserve">池田市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府吹田市</t>
-  </si>
-  <si>
     <t xml:space="preserve">吹田市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府高槻市</t>
-  </si>
-  <si>
     <t xml:space="preserve">高槻市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府茨木市</t>
-  </si>
-  <si>
     <t xml:space="preserve">茨木市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府箕面市</t>
-  </si>
-  <si>
     <t xml:space="preserve">箕面市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府摂津市</t>
-  </si>
-  <si>
     <t xml:space="preserve">摂津市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府島本町</t>
-  </si>
-  <si>
     <t xml:space="preserve">島本町</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府豊能町</t>
-  </si>
-  <si>
     <t xml:space="preserve">豊能町</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府能勢町</t>
-  </si>
-  <si>
     <t xml:space="preserve">能勢町</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府守口市</t>
+    <t xml:space="preserve">守口市</t>
   </si>
   <si>
     <t xml:space="preserve">東部大阪</t>
   </si>
   <si>
-    <t xml:space="preserve">守口市</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大阪府枚方市</t>
-  </si>
-  <si>
     <t xml:space="preserve">枚方市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府八尾市</t>
-  </si>
-  <si>
     <t xml:space="preserve">八尾市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府寝屋川市</t>
-  </si>
-  <si>
     <t xml:space="preserve">寝屋川市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府大東市</t>
-  </si>
-  <si>
     <t xml:space="preserve">大東市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府柏原市</t>
-  </si>
-  <si>
     <t xml:space="preserve">柏原市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府門真市</t>
-  </si>
-  <si>
     <t xml:space="preserve">門真市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府東大阪</t>
-  </si>
-  <si>
     <t xml:space="preserve">東大阪市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府東大阪市</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大阪府四條畷市</t>
-  </si>
-  <si>
     <t xml:space="preserve">四條畷市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府交野市</t>
-  </si>
-  <si>
     <t xml:space="preserve">交野市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府大阪市</t>
-  </si>
-  <si>
     <t xml:space="preserve">大阪市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府富田林市</t>
+    <t xml:space="preserve">富田林市</t>
   </si>
   <si>
     <t xml:space="preserve">南河内</t>
   </si>
   <si>
-    <t xml:space="preserve">富田林市</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大阪府河内長野市</t>
-  </si>
-  <si>
     <t xml:space="preserve">河内長野市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府松原市</t>
-  </si>
-  <si>
     <t xml:space="preserve">松原市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府羽曳野市</t>
-  </si>
-  <si>
     <t xml:space="preserve">羽曳野市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府藤井寺市</t>
-  </si>
-  <si>
     <t xml:space="preserve">藤井寺市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府大阪狭山市</t>
-  </si>
-  <si>
     <t xml:space="preserve">大阪狭山市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府太子町</t>
-  </si>
-  <si>
     <t xml:space="preserve">太子町</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府河南町</t>
-  </si>
-  <si>
     <t xml:space="preserve">河南町</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府千早赤阪村</t>
-  </si>
-  <si>
     <t xml:space="preserve">千早赤阪村</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府堺市</t>
+    <t xml:space="preserve">堺市</t>
   </si>
   <si>
     <t xml:space="preserve">泉州</t>
   </si>
   <si>
-    <t xml:space="preserve">堺市</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大阪府岸和田</t>
-  </si>
-  <si>
     <t xml:space="preserve">岸和田市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府岸和田市</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大阪府泉大津市</t>
-  </si>
-  <si>
     <t xml:space="preserve">泉大津市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府貝塚市</t>
-  </si>
-  <si>
     <t xml:space="preserve">貝塚市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府泉佐野市</t>
-  </si>
-  <si>
     <t xml:space="preserve">泉佐野市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府和泉市</t>
-  </si>
-  <si>
     <t xml:space="preserve">和泉市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府高石市</t>
-  </si>
-  <si>
     <t xml:space="preserve">高石市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府泉南市</t>
-  </si>
-  <si>
     <t xml:space="preserve">泉南市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府阪南市</t>
-  </si>
-  <si>
     <t xml:space="preserve">阪南市</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府忠岡町</t>
-  </si>
-  <si>
     <t xml:space="preserve">忠岡町</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府熊取町</t>
-  </si>
-  <si>
     <t xml:space="preserve">熊取町</t>
   </si>
   <si>
-    <t xml:space="preserve">大阪府田尻町</t>
-  </si>
-  <si>
     <t xml:space="preserve">田尻町</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大阪府岬町</t>
   </si>
   <si>
     <t xml:space="preserve">岬町</t>
@@ -319,6 +184,7 @@
       <sz val="10"/>
       <name val="Hiragino Mincho ProN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -404,18 +270,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,491 +303,469 @@
         <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
+      <c r="A19" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>70</v>
+      <c r="A34" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
